--- a/Demo_files/schedule_fras_32.xlsx
+++ b/Demo_files/schedule_fras_32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TechNo(D)\Projects\Face Recognition\FRAS\Demo_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5D808A-C6CC-4A70-9124-76C9FD0DBE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70933B01-0F70-4BAB-B406-83BB513CE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>DEPARTMENT OF COMPUTER SCIENCE AND ENGINEERING</t>
   </si>
@@ -98,37 +98,7 @@
     <t>CS366</t>
   </si>
   <si>
-    <t>CS365(B)CS363(A)</t>
-  </si>
-  <si>
     <t>CS365</t>
-  </si>
-  <si>
-    <t>CS366(B)CS364(A)</t>
-  </si>
-  <si>
-    <t>CS364(B)CS366(A)</t>
-  </si>
-  <si>
-    <t>CS364(B)CS361(A)</t>
-  </si>
-  <si>
-    <t>CS363(B)CS361(A)</t>
-  </si>
-  <si>
-    <t>CS361(B)CS364(A)</t>
-  </si>
-  <si>
-    <t>CS361(B)CS362(A)</t>
-  </si>
-  <si>
-    <t>CS362(B)CS366(A)</t>
-  </si>
-  <si>
-    <t>CS366(B)CS362(A)</t>
-  </si>
-  <si>
-    <t>CS362(B)CS363(A)</t>
   </si>
 </sst>
 </file>
@@ -302,6 +272,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,12 +292,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,43 +516,43 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
@@ -643,20 +613,20 @@
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -666,18 +636,18 @@
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="5" t="s">
@@ -687,18 +657,18 @@
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="5" t="s">
@@ -710,18 +680,18 @@
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="H10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="5" t="s">
@@ -731,18 +701,18 @@
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="15" t="s">
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="16"/>
+      <c r="H11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -758,14 +728,14 @@
       <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
